--- a/data/運用調査.xlsx
+++ b/data/運用調査.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\JB-operation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC2355B-D7A1-4FD9-95ED-CBDC9FDA9BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387A363B-3BD0-4E60-B9DA-69BE406974A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="走行距離" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="80">
   <si>
     <t>運用開始駅</t>
     <rPh sb="0" eb="5">
@@ -347,6 +348,54 @@
   </si>
   <si>
     <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三鷹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津田沼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西船橋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幕張</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御茶ノ水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中野</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離(km)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行距離</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -734,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -775,7 +824,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1058,21 +1106,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="8" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9" style="11"/>
-    <col min="5" max="5" width="10.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" style="8" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+    <row r="1" spans="1:12" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19.5" thickBot="1">
+    <row r="4" spans="1:12" ht="18.600000000000001" thickBot="1">
       <c r="A4" s="26"/>
       <c r="B4" s="27" t="s">
         <v>45</v>
@@ -1221,7 +1269,7 @@
       <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" t="s">
         <v>52</v>
       </c>
       <c r="K5" t="s">
@@ -1271,7 +1319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.5" thickBot="1">
+    <row r="8" spans="1:12" ht="18.600000000000001" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="28" t="s">
         <v>65</v>
@@ -1285,7 +1333,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:12" ht="19.5" thickBot="1">
+    <row r="9" spans="1:12" ht="18.600000000000001" thickBot="1">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1552,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.5" thickBot="1">
+    <row r="20" spans="1:8" ht="18.600000000000001" thickBot="1">
       <c r="A20" s="26"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -1518,7 +1566,7 @@
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" ht="19.5" thickBot="1">
+    <row r="21" spans="1:8" ht="18.600000000000001" thickBot="1">
       <c r="A21" s="34" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1588,7 @@
       </c>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="1:8" ht="19.5" thickBot="1">
+    <row r="22" spans="1:8" ht="18.600000000000001" thickBot="1">
       <c r="A22" s="34" t="s">
         <v>9</v>
       </c>
@@ -1556,7 +1604,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="1:8" ht="19.5" thickBot="1">
+    <row r="23" spans="1:8" ht="18.600000000000001" thickBot="1">
       <c r="A23" s="34" t="s">
         <v>10</v>
       </c>
@@ -1590,4 +1638,638 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C126C4-5F60-479E-AC21-06EC0EBBBAD8}">
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>60.2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>47.7</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F12" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>41.6</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>52.6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>21.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>9.4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="1">D7*E7</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>50.8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>114.89999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>12.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E2:E12)</f>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F2:F12)</f>
+        <v>235.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>120.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>701.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>304.10000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>565.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>394.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>311.10000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>385.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>499.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>445.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>260.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>503.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>659.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>451.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>635.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>512.29999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>413.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>463.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>664.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>613.70000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>626.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>430.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>401.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>603.79999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>405.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>543.29999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>583.20000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>254.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>688.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>370.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>235.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70">
+        <f>AVERAGE(B15:B68)</f>
+        <v>441.0057142857143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/運用調査.xlsx
+++ b/data/運用調査.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-win\Documents\NeuroDive\202512成果物\jb-operations-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387A363B-3BD0-4E60-B9DA-69BE406974A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A4E99D-CD49-470D-A589-24D5212A8C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C126C4-5F60-479E-AC21-06EC0EBBBAD8}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1675,11 +1675,11 @@
         <v>60.2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f>D2*E2</f>
-        <v>60.2</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1695,6 +1695,9 @@
       <c r="D3">
         <v>47.7</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <f t="shared" ref="F3:F12" si="0">D3*E3</f>
         <v>0</v>
@@ -1713,9 +1716,12 @@
       <c r="D4">
         <v>41.6</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>124.80000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1767,12 +1773,9 @@
       <c r="D7">
         <v>9.4</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
         <f t="shared" ref="F7" si="1">D7*E7</f>
-        <v>9.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1789,11 +1792,11 @@
         <v>50.8</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>50.8</v>
+        <v>203.2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1809,12 +1812,9 @@
       <c r="D9">
         <v>38.299999999999997</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>114.89999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1830,9 +1830,12 @@
       <c r="D10">
         <v>32.200000000000003</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1877,11 +1880,11 @@
       </c>
       <c r="E13">
         <f>SUM(E2:E12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <f>SUM(F2:F12)</f>
-        <v>235.3</v>
+        <v>480.59999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2168,96 +2171,153 @@
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B50">
+        <v>63.3</v>
+      </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B51">
+        <v>602.70000000000005</v>
+      </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B52">
+        <v>547.79999999999995</v>
+      </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B53">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B54">
+        <v>562.4</v>
+      </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B55">
+        <v>396.4</v>
+      </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B56">
+        <v>311.5</v>
+      </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B57">
+        <v>578.79999999999995</v>
+      </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B58">
+        <v>641</v>
+      </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B59">
+        <v>471</v>
+      </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B60">
+        <v>558.20000000000005</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B61">
+        <v>120.4</v>
+      </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B62">
+        <v>280.2</v>
+      </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B63">
+        <v>292.39999999999998</v>
+      </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B64">
+        <v>718</v>
+      </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B65">
+        <v>89.3</v>
+      </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B66">
+        <v>684.8</v>
+      </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="B67">
+        <v>540.1</v>
+      </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="B68">
+        <v>480.6</v>
+      </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
@@ -2265,7 +2325,7 @@
       </c>
       <c r="B70">
         <f>AVERAGE(B15:B68)</f>
-        <v>441.0057142857143</v>
+        <v>434.20000000000005</v>
       </c>
     </row>
   </sheetData>
